--- a/data/processed/infracc_inter.xlsx
+++ b/data/processed/infracc_inter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\proyecto_accidentes\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F62EE3E1-9768-4F38-B1D5-E8E3E1C6F8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB007C-3F40-4D60-866E-30F20B63C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4895C62E-9363-4AB1-8E64-8F3DB0DA80AB}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -332,6 +332,7 @@
     <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -647,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E0CA62-BC0A-4418-A9EB-8A5FEB9136FA}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -660,7 +661,7 @@
     <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -677,7 +678,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -692,7 +693,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -733,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -774,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="48">
+    <row r="5" spans="1:14" ht="24">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -815,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -856,7 +857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -897,7 +898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -937,8 +938,9 @@
       <c r="M8" s="16">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -979,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="48">
+    <row r="11" spans="1:14" ht="24">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="72">
+    <row r="12" spans="1:14" ht="24">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="48">
+    <row r="13" spans="1:14" ht="24">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="48">
+    <row r="15" spans="1:14" ht="24">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="63">
+    <row r="23" spans="1:13" ht="25.2">
       <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="72">
+    <row r="28" spans="1:13" ht="24">
       <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="50.4">
+    <row r="31" spans="1:13" ht="25.2">
       <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
@@ -2047,5 +2049,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>